--- a/data/trans_bre/P17_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.750560292167783</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.975344585307454</v>
+        <v>7.975344585307475</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2095670632586019</v>
@@ -649,7 +649,7 @@
         <v>0.0731884142221777</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1138542190448203</v>
+        <v>0.1138542190448206</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.621829905787735</v>
+        <v>9.547866131673322</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.935661711012401</v>
+        <v>4.457847049491173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.650932353679069</v>
+        <v>1.281215441208734</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.469700103046395</v>
+        <v>3.377504308162964</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1362587835443335</v>
+        <v>0.1362650070854861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0655632397849088</v>
+        <v>0.05920462298478368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01944798966191184</v>
+        <v>0.01562740685934428</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.04818276230773612</v>
+        <v>0.04569672007126473</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.70828659831048</v>
+        <v>18.51470626145424</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.44287070391891</v>
+        <v>13.33367887980695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.69529029967577</v>
+        <v>9.864958231383453</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.43665692678671</v>
+        <v>12.49978366301567</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2888412281602163</v>
+        <v>0.2869450257123762</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1870881636402191</v>
+        <v>0.1846411295704918</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1386225268699192</v>
+        <v>0.1301402931423339</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1878679950819148</v>
+        <v>0.1866905435971869</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.335600199063153</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.397430505323043</v>
+        <v>6.397430505323021</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2010074368234311</v>
@@ -749,7 +749,7 @@
         <v>0.1094513999868543</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.0898408530902831</v>
+        <v>0.08984085309028275</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.088443039794795</v>
+        <v>9.113595339244879</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.696560313677378</v>
+        <v>7.326080467083577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.581266999213602</v>
+        <v>4.677877016367312</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.409019243662272</v>
+        <v>2.505244339458606</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1350741995818789</v>
+        <v>0.1337600800798441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08958197355694555</v>
+        <v>0.09926601913075034</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05947810377355246</v>
+        <v>0.05934786173013717</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03312507823076884</v>
+        <v>0.03476450907801096</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.45585690693595</v>
+        <v>17.03982245156587</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.73767369338132</v>
+        <v>14.50216429293456</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.69484043386112</v>
+        <v>11.71729958414143</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.74327802291991</v>
+        <v>10.56000523190173</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2788611859134295</v>
+        <v>0.2702292843804184</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2106632695621979</v>
+        <v>0.207021169009897</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.159907713126128</v>
+        <v>0.1584509936566988</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.157425141009585</v>
+        <v>0.1570903851498053</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.983234681012608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14.32171254010135</v>
+        <v>14.32171254010136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3248196406492763</v>
@@ -849,7 +849,7 @@
         <v>0.1130385721972337</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2335199184172453</v>
+        <v>0.2335199184172456</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>13.17641969218102</v>
+        <v>12.7871243209641</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.538992292130688</v>
+        <v>6.839633206570403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.508579062504229</v>
+        <v>3.270392768176032</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.214069967976753</v>
+        <v>9.631514173171993</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2259387118133141</v>
+        <v>0.2176449263568901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1089970662348239</v>
+        <v>0.1000238210086822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04808499133172775</v>
+        <v>0.04510446457195148</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1448543201156705</v>
+        <v>0.1497884164369004</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.32447099999771</v>
+        <v>23.09826316227457</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.74285660059792</v>
+        <v>16.84182662491621</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.6622017490163</v>
+        <v>12.43124825086214</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.87011603333974</v>
+        <v>19.64143006591798</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4458886464608908</v>
+        <v>0.4409394896309365</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2647880984875902</v>
+        <v>0.2683030909159447</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1869225546461064</v>
+        <v>0.184174389031304</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3261136334698815</v>
+        <v>0.3449656406481013</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.707907649501066</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.644667899402025</v>
+        <v>8.644667899402014</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2078374287994971</v>
@@ -949,7 +949,7 @@
         <v>0.09325938495753269</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1280066486200931</v>
+        <v>0.1280066486200929</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.911016954650556</v>
+        <v>8.353707606084443</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.410413705480615</v>
+        <v>8.51123352793636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.994675899515956</v>
+        <v>2.858130618283541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.955610836769956</v>
+        <v>4.507258200668021</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1295373258431073</v>
+        <v>0.1297273331074508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1147003994352126</v>
+        <v>0.1178261448420259</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04002132880630496</v>
+        <v>0.03805434407086487</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07052055514987299</v>
+        <v>0.06460390267320001</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.71545124092837</v>
+        <v>17.03344913398476</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.26992759190069</v>
+        <v>15.96306011915918</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.56934382418741</v>
+        <v>10.14218420509057</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.06353578675271</v>
+        <v>12.58824656617384</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2920181265353748</v>
+        <v>0.2904851661094277</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2402186980663467</v>
+        <v>0.2353701030806971</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1520748395075165</v>
+        <v>0.1447190687118207</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2024969163093791</v>
+        <v>0.1949466649949465</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.09688791319488319</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1348512049711981</v>
+        <v>0.134851204971198</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.83185351922296</v>
+        <v>12.00893050588915</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.128715173634266</v>
+        <v>9.1500090701437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.235228871918793</v>
+        <v>5.144152546042491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.003816727077854</v>
+        <v>6.811479911200055</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1840231646598586</v>
+        <v>0.189457526497872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1278236244308829</v>
+        <v>0.1262667302136971</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06948440584366927</v>
+        <v>0.06901172585850347</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1013300605933503</v>
+        <v>0.09841099909519256</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.3438199574887</v>
+        <v>16.43145729862468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.21439891808032</v>
+        <v>13.26204738713538</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.11110713990681</v>
+        <v>9.117826219308219</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.32596413486395</v>
+        <v>11.34508364740419</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2674290957304122</v>
+        <v>0.2684266740968472</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.189800381080309</v>
+        <v>0.1896003691713641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1248572856751047</v>
+        <v>0.1253012082656544</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1725067350674477</v>
+        <v>0.1716193375389144</v>
       </c>
     </row>
     <row r="19">
